--- a/FDRS_PTKBI/Dokumentasi/kalibrasi.xlsx
+++ b/FDRS_PTKBI/Dokumentasi/kalibrasi.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\LaptopWork\FDRS_PTKBI\Dokumentasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB900F-4A68-4DFE-A8D2-CDF882624E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9ED100-5CAC-4ADB-994B-833F04948250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6FFC1C34-D8F6-4867-875C-5DCC7D253F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{6FFC1C34-D8F6-4867-875C-5DCC7D253F32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="20">
   <si>
     <t>LCP8</t>
   </si>
@@ -91,6 +93,9 @@
   </si>
   <si>
     <t>dengan Beban</t>
+  </si>
+  <si>
+    <t>Take 3</t>
   </si>
 </sst>
 </file>
@@ -197,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -206,15 +211,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,6 +239,438 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1844961711"/>
+        <c:axId val="1844960751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1844961711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844960751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844960751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844961711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1844961231"/>
+        <c:axId val="1844959311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1844961231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844959311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844959311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844961231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -570,7 +1008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -983,8 +1421,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1011,8 +1529,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1113,7 +1631,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1145,10 +1663,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1188,23 +1706,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1309,8 +1826,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1442,20 +1959,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1469,17 +1985,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1500,7 +2005,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1527,8 +2032,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1629,7 +2134,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1661,6 +2166,509 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2015,20 +3023,624 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1B6FB0A4-6CC3-453E-813B-E10E0B70718A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F0024EA1-9DC5-45B3-832A-3D5959D3B00D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BD2762-839A-351A-21C3-C91BD9227D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674554" cy="6293304"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46580797-4A77-E351-A61E-C137E0DE71A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168047</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>79601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472847</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>155801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2389,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05ADD9B-6C5F-4C19-AB07-8D1461D7606E}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +4100,9 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="3">
         <v>1.8</v>
       </c>
@@ -2510,7 +4124,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="3">
         <v>12.1</v>
       </c>
@@ -2566,7 +4182,9 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="3">
         <v>25.7</v>
       </c>
@@ -2588,7 +4206,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="3">
         <v>46.1</v>
       </c>
@@ -2644,7 +4264,9 @@
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="4">
         <v>5.6</v>
       </c>
@@ -2666,7 +4288,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="4">
         <v>15.8</v>
       </c>
@@ -2722,7 +4346,9 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C19" s="4">
         <v>15.8</v>
       </c>
@@ -2744,7 +4370,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="4">
         <v>27</v>
       </c>
@@ -2763,11 +4391,18 @@
       <c r="H20" s="5">
         <v>7.6</v>
       </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -2792,7 +4427,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2818,7 +4453,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2842,7 +4477,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2852,7 +4487,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>1</v>
@@ -2874,7 +4509,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2900,7 +4535,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
@@ -2924,7 +4559,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2934,7 +4569,7 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -2956,7 +4591,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2982,7 +4617,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
@@ -3006,7 +4641,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3016,7 +4651,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -3038,7 +4673,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3064,7 +4699,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
@@ -3094,7 +4729,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3110,7 +4745,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -3132,7 +4767,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3158,7 +4793,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="2" t="s">
         <v>18</v>
       </c>
@@ -3181,8 +4816,374 @@
         <v>3.19</v>
       </c>
     </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="H48" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E49" s="11">
+        <v>19.25</v>
+      </c>
+      <c r="F49" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="G49" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="H49" s="11">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="11">
+        <v>6.8</v>
+      </c>
+      <c r="D56" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="E56" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="F56" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="H56" s="11">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="D57" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="E57" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="F57" s="11">
+        <v>11.06</v>
+      </c>
+      <c r="G57" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="H57" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="D60" s="11">
+        <v>6.35</v>
+      </c>
+      <c r="E60" s="11">
+        <v>21.4</v>
+      </c>
+      <c r="F60" s="11">
+        <v>11.35</v>
+      </c>
+      <c r="G60" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H60" s="11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="D61" s="11">
+        <v>10.14</v>
+      </c>
+      <c r="E61" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="F61" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="G61" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H61" s="11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A37:A38"/>
